--- a/test_data/cai/login_test_data.xlsx
+++ b/test_data/cai/login_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-3140" yWindow="-17760" windowWidth="24960" windowHeight="14320" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24960" windowHeight="14240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>用户名</t>
     <rPh sb="0" eb="1">
@@ -85,10 +85,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>qq123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名为空</t>
     <rPh sb="0" eb="1">
       <t>yong hu</t>
@@ -132,14 +128,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ui123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>密码为空</t>
     <rPh sb="0" eb="1">
       <t>mi ma</t>
@@ -169,25 +157,216 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>请填写手机</t>
-    <rPh sb="0" eb="1">
-      <t>qing</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>tian xie</t>
+    <t>验证登录管有帐1</t>
+    <rPh sb="0" eb="1">
+      <t>yan zheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>deng lu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>guan you zhang</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名为空2</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming</t>
     </rPh>
     <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码不正确3</t>
+    <rPh sb="0" eb="1">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zheng que</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名为空4</t>
+    <rPh sb="0" eb="1">
+      <t>yong hu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ming</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码为空5</t>
+    <rPh sb="0" eb="1">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机格式不正确6</t>
+    <rPh sb="0" eb="1">
       <t>shou ji</t>
     </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请填写密码</t>
-    <rPh sb="0" eb="1">
-      <t>qing</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>tian xie</t>
+    <rPh sb="2" eb="3">
+      <t>ge shi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zheng que</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13683139989</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13683920292</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13683139989</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>13683139989</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18612198503</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13683920292</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>18612198503</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>123</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13683139989</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13683920292</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13683139989</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13683139989</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号码不能为空</t>
+    <rPh sb="0" eb="1">
+      <t>shou ji hao ma</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>bu neng</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei kong</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>请输入密码</t>
+    <rPh sb="0" eb="1">
+      <t>qing shu ru</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>mi ma</t>
@@ -195,117 +374,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>qq123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13683139989</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>18612198503</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>18612198503</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qq123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证登录管有帐1</t>
-    <rPh sb="0" eb="1">
-      <t>yan zheng</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>deng lu</t>
+    <t>手机号码格式错误</t>
+    <rPh sb="0" eb="1">
+      <t>shou ji hao m</t>
     </rPh>
     <rPh sb="4" eb="5">
-      <t>guan you zhang</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名为空2</t>
-    <rPh sb="0" eb="1">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>kong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不正确3</t>
-    <rPh sb="0" eb="1">
-      <t>mi ma</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>zheng que</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名为空4</t>
-    <rPh sb="0" eb="1">
-      <t>yong hu</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>kong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码为空5</t>
-    <rPh sb="0" eb="1">
-      <t>mi ma</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>kong</t>
-    </rPh>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机格式不正确6</t>
-    <rPh sb="0" eb="1">
-      <t>shou ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
       <t>ge shi</t>
     </rPh>
-    <rPh sb="4" eb="5">
-      <t>bu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>zheng que</t>
+    <rPh sb="6" eb="7">
+      <t>cuo wu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -678,7 +755,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -704,11 +781,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
+      <c r="A2" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -718,77 +795,78 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>13683920292</v>
+      <c r="A3" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:A7" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -797,7 +875,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -823,91 +901,90 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>13683139989</v>
+      <c r="A2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>13683920292</v>
+      <c r="A3" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>13683139989</v>
+      <c r="A4" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C7" s="6" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A6:A7" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -916,7 +993,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -933,91 +1010,95 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>13683139989</v>
+      <c r="A2" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>13683920292</v>
+      <c r="A3" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>13683139989</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/cai/login_test_data.xlsx
+++ b/test_data/cai/login_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24960" windowHeight="14240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="24960" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>用户名</t>
     <rPh sb="0" eb="1">
@@ -287,7 +287,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>18612198503</t>
+    <t>qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq123456</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>13683139989</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -295,47 +307,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>18612198503</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>123</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qq123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ui123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq123456</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>13683139989</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>13683920292</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>13683139989</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>13683139989</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>qq123456</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -385,6 +361,21 @@
       <t>cuo wu</t>
     </rPh>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1qazxsw2</t>
+  </si>
+  <si>
+    <t>18612198503</t>
+  </si>
+  <si>
+    <t>13683920292</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>qq123456</t>
   </si>
 </sst>
 </file>
@@ -397,7 +388,6 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,7 +467,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -755,7 +745,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -782,10 +772,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -796,10 +786,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>6</v>
@@ -810,10 +800,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>8</v>
@@ -833,12 +823,12 @@
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -847,21 +837,21 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -874,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -883,7 +873,7 @@
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -953,7 +943,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -965,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -979,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -992,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1019,10 +1009,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -1033,10 +1023,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
@@ -1047,10 +1037,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -1064,18 +1054,18 @@
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -1084,7 +1074,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1092,13 +1082,13 @@
         <v>23</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/cai/login_test_data.xlsx
+++ b/test_data/cai/login_test_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="24960" windowHeight="14240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="340" yWindow="460" windowWidth="24960" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="dev" sheetId="1" r:id="rId1"/>
@@ -363,9 +363,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1qazxsw2</t>
-  </si>
-  <si>
     <t>18612198503</t>
   </si>
   <si>
@@ -376,6 +373,10 @@
   </si>
   <si>
     <t>qq123456</t>
+  </si>
+  <si>
+    <t>1QAZXSW2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -388,6 +389,7 @@
       <color theme="1"/>
       <name val="DengXian"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,7 +469,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -744,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,10 +774,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>4</v>
@@ -786,7 +788,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
@@ -800,7 +802,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>30</v>
@@ -828,7 +830,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
@@ -842,7 +844,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>31</v>
@@ -864,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1012,7 +1014,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>4</v>
@@ -1026,7 +1028,7 @@
         <v>33</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>6</v>
